--- a/3.Classification/ChaLearn-2021-LAP/ExperimentosJoe.xlsx
+++ b/3.Classification/ChaLearn-2021-LAP/ExperimentosJoe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documentos\Projects\PeruvianSignLanguage\3.Classification\ChaLearn-2021-LAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5118CF19-DDE2-4676-A3E8-8C59ABB7BCA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DB1BAC4-E0A3-4B9A-B632-9D7A207AA5DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{B664CC47-0CDC-4C29-8327-B2D4CD6615DF}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="24">
   <si>
     <t>10nouns</t>
   </si>
@@ -125,18 +125,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -160,7 +154,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -475,11 +469,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98E7DA79-1D56-4C42-82B7-A2573CE01401}">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -546,7 +540,7 @@
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" t="s">
@@ -596,7 +590,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B3" t="s">
@@ -646,7 +640,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" t="s">
@@ -696,7 +690,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B5" t="s">
@@ -746,7 +740,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
@@ -796,7 +790,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B7" t="s">
@@ -846,7 +840,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B8" t="s">
@@ -896,7 +890,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B9" t="s">
@@ -946,7 +940,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B10" t="s">
@@ -1102,29 +1096,44 @@
       <c r="B13" t="s">
         <v>0</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>12</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>20</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F13">
-        <v>100</v>
-      </c>
-      <c r="G13">
-        <v>2</v>
-      </c>
-      <c r="H13">
-        <v>8</v>
-      </c>
-      <c r="I13">
-        <v>8</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+      <c r="F13" s="2">
+        <v>100</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>8</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+      <c r="K13" s="2">
+        <v>0.45669999999999999</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="O13">
+        <v>0.203619909502262</v>
       </c>
       <c r="P13" t="s">
         <v>22</v>
@@ -1173,6 +1182,9 @@
       <c r="N14">
         <v>0.22500000000000001</v>
       </c>
+      <c r="O14">
+        <v>0.144796380090497</v>
+      </c>
       <c r="P14" t="s">
         <v>22</v>
       </c>
@@ -1208,6 +1220,18 @@
       <c r="J15">
         <v>0.25</v>
       </c>
+      <c r="K15">
+        <v>0.42320000000000002</v>
+      </c>
+      <c r="L15">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="M15">
+        <v>1.091</v>
+      </c>
+      <c r="N15">
+        <v>0.72499999999999998</v>
+      </c>
       <c r="O15">
         <v>0.167420814479638</v>
       </c>
@@ -1258,6 +1282,9 @@
       <c r="N16">
         <v>0.22500000000000001</v>
       </c>
+      <c r="O16">
+        <v>0.144796380090497</v>
+      </c>
       <c r="P16" t="s">
         <v>22</v>
       </c>
@@ -1293,6 +1320,21 @@
       <c r="J17">
         <v>0.25</v>
       </c>
+      <c r="K17">
+        <v>0.47449999999999998</v>
+      </c>
+      <c r="L17">
+        <v>0.89939999999999998</v>
+      </c>
+      <c r="M17">
+        <v>1.137</v>
+      </c>
+      <c r="N17">
+        <v>0.65</v>
+      </c>
+      <c r="O17">
+        <v>0.18552036199095001</v>
+      </c>
       <c r="P17" t="s">
         <v>22</v>
       </c>
@@ -1340,6 +1382,9 @@
       <c r="N18">
         <v>0.22500000000000001</v>
       </c>
+      <c r="O18">
+        <v>0.144796380090497</v>
+      </c>
       <c r="P18" t="s">
         <v>22</v>
       </c>
@@ -1375,6 +1420,21 @@
       <c r="J19">
         <v>0</v>
       </c>
+      <c r="K19">
+        <v>0.41830000000000001</v>
+      </c>
+      <c r="L19">
+        <v>0.92449999999999999</v>
+      </c>
+      <c r="M19">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="N19">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="O19">
+        <v>0.167420814479638</v>
+      </c>
       <c r="P19" t="s">
         <v>22</v>
       </c>
@@ -1417,11 +1477,14 @@
         <v>0.22639999999999999</v>
       </c>
       <c r="M20">
-        <v>2.1160000000000001</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0.22500000000000001</v>
       </c>
+      <c r="O20">
+        <v>0.144796380090497</v>
+      </c>
       <c r="P20" t="s">
         <v>22</v>
       </c>
@@ -1457,6 +1520,21 @@
       <c r="J21">
         <v>0</v>
       </c>
+      <c r="K21">
+        <v>0.43980000000000002</v>
+      </c>
+      <c r="L21">
+        <v>0.91820000000000002</v>
+      </c>
+      <c r="M21">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="N21">
+        <v>0.625</v>
+      </c>
+      <c r="O21">
+        <v>0.13574660633484101</v>
+      </c>
       <c r="P21" t="s">
         <v>22</v>
       </c>
@@ -1504,6 +1582,9 @@
       <c r="N22">
         <v>0.22500000000000001</v>
       </c>
+      <c r="O22">
+        <v>0.144796380090497</v>
+      </c>
       <c r="P22" t="s">
         <v>22</v>
       </c>
@@ -1539,6 +1620,21 @@
       <c r="J23">
         <v>0.25</v>
       </c>
+      <c r="K23">
+        <v>0.43830000000000002</v>
+      </c>
+      <c r="L23">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="M23">
+        <v>1.0509999999999999</v>
+      </c>
+      <c r="N23">
+        <v>0.75</v>
+      </c>
+      <c r="O23">
+        <v>0.17194570135746601</v>
+      </c>
       <c r="P23" t="s">
         <v>22</v>
       </c>
@@ -1586,6 +1682,9 @@
       <c r="N24">
         <v>0.22500000000000001</v>
       </c>
+      <c r="O24">
+        <v>0.144796380090497</v>
+      </c>
       <c r="P24" t="s">
         <v>22</v>
       </c>
@@ -1621,6 +1720,21 @@
       <c r="J25">
         <v>0.25</v>
       </c>
+      <c r="K25">
+        <v>0.46429999999999999</v>
+      </c>
+      <c r="L25">
+        <v>0.88680000000000003</v>
+      </c>
+      <c r="M25">
+        <v>1.1719999999999999</v>
+      </c>
+      <c r="N25">
+        <v>0.65</v>
+      </c>
+      <c r="O25">
+        <v>0.131221719457013</v>
+      </c>
       <c r="P25" t="s">
         <v>22</v>
       </c>
@@ -1668,140 +1782,16 @@
       <c r="N26">
         <v>0.22500000000000001</v>
       </c>
+      <c r="O26">
+        <v>0.144796380090497</v>
+      </c>
       <c r="P26" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" t="s">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>26</v>
-      </c>
-      <c r="D27">
-        <v>20</v>
-      </c>
-      <c r="E27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F27">
-        <v>100</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="H27">
-        <v>8</v>
-      </c>
-      <c r="I27">
-        <v>8</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>27</v>
-      </c>
-      <c r="D28">
-        <v>20</v>
-      </c>
-      <c r="E28" t="s">
-        <v>23</v>
-      </c>
-      <c r="F28">
-        <v>100</v>
-      </c>
-      <c r="G28">
-        <v>1</v>
-      </c>
-      <c r="H28">
-        <v>8</v>
-      </c>
-      <c r="I28">
-        <v>8</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B29" t="s">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>28</v>
-      </c>
-      <c r="D29">
-        <v>20</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29">
-        <v>100</v>
-      </c>
-      <c r="G29">
-        <v>2</v>
-      </c>
-      <c r="H29">
-        <v>8</v>
-      </c>
-      <c r="I29">
-        <v>8</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30" t="s">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>29</v>
-      </c>
-      <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>8</v>
-      </c>
-      <c r="I30">
-        <v>8</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>